--- a/Tests/Test results.xlsx
+++ b/Tests/Test results.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Unity Tutorials - learn.unity.com\Create with Code\Junior Programmer - Object-Oriented Programming Submission\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA8F86-32B0-467C-930D-3A8EDA098F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A9A121-1F18-4964-BAEB-67930D00554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="17">
   <si>
     <t>Test No.</t>
   </si>
@@ -67,6 +76,15 @@
   </si>
   <si>
     <t>Losses</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Overall results</t>
+  </si>
+  <si>
+    <t>If the player selects the Truck or Light vehicle, it is possible to win more often than when all vehicles are controlled by the algorithm. However, this is not shown by the results when controlling the Heavy vehicle. If a future version is released, it may be useful to make the Heavy and Light vehicles easier to control.</t>
   </si>
 </sst>
 </file>
@@ -102,16 +120,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,9 +428,10 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="29" width="3.77734375" customWidth="1"/>
     <col min="30" max="31" width="6.6640625" customWidth="1"/>
+    <col min="32" max="32" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +475,11 @@
         <v>10</v>
       </c>
       <c r="AE1" s="1"/>
+      <c r="AF1" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -540,12 +565,13 @@
       <c r="AE2" t="s">
         <v>13</v>
       </c>
+      <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
@@ -563,47 +589,378 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3">
+        <f>COUNTIF($E3:$AC3, "W")</f>
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <f>COUNTIF($E3:$AC3, "L")</f>
+        <v>23</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4">
+        <f>COUNTIF($E4:$AC4, "W")</f>
+        <v>21</v>
+      </c>
+      <c r="AE4">
+        <f>COUNTIF($E4:$AC4, "L")</f>
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5">
+        <f>COUNTIF($E5:$AC5, "W")</f>
+        <v>7</v>
+      </c>
+      <c r="AE5">
+        <f>COUNTIF($E5:$AC5, "L")</f>
+        <v>18</v>
+      </c>
+      <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6">
+        <f>COUNTIF($E6:$AC6, "W")</f>
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <f>COUNTIF($E6:$AC6, "L")</f>
+        <v>23</v>
+      </c>
+      <c r="AF6" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AF3:AF6"/>
     <mergeCell ref="E1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
